--- a/_content/training/2019/trainingsuren-2019-2020.xlsx
+++ b/_content/training/2019/trainingsuren-2019-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Coenen\Documents\Stefan\Documents\Basket\basket 2019-2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\basket\lummen\_content\training\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB58B4E1-1C13-4218-AF46-482FA8E9C95E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984D7CA7-F5A2-4D23-A6BC-116B510A0BE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1534" yWindow="-103" windowWidth="31483" windowHeight="18720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maandag" sheetId="1" r:id="rId1"/>
@@ -696,6 +696,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -707,6 +711,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -715,12 +723,28 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -747,30 +771,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -837,7 +837,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="52">
     <dxf>
@@ -3031,19 +3031,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="6" width="10" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" customWidth="1"/>
-    <col min="15" max="15" width="18.1796875" customWidth="1"/>
+    <col min="8" max="8" width="18.4609375" customWidth="1"/>
+    <col min="15" max="15" width="18.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3083,7 +3083,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3093,7 +3093,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3103,7 +3103,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -3113,7 +3113,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3123,7 +3123,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -3133,7 +3133,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -3143,7 +3143,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -3153,7 +3153,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -3183,7 +3183,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -3203,7 +3203,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -3213,7 +3213,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -3223,7 +3223,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -3243,7 +3243,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -3253,7 +3253,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -3269,7 +3269,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -3325,7 +3325,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -3335,7 +3335,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -3345,7 +3345,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -3355,33 +3355,33 @@
       <c r="E29" s="5"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3396,16 +3396,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3445,7 +3445,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3455,7 +3455,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3465,7 +3465,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3475,7 +3475,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3485,7 +3485,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3495,7 +3495,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -3505,7 +3505,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -3515,7 +3515,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -3525,7 +3525,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -3535,7 +3535,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3545,7 +3545,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -3555,7 +3555,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -3565,7 +3565,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -3575,7 +3575,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -3585,7 +3585,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -3595,7 +3595,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -3609,7 +3609,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -3623,7 +3623,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -3633,13 +3633,11 @@
       <c r="C21" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>87</v>
-      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="11"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -3655,7 +3653,7 @@
       <c r="E22" s="11"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -3671,7 +3669,7 @@
       <c r="E23" s="11"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -3679,11 +3677,13 @@
       <c r="C24" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -3699,7 +3699,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -3715,7 +3715,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -3731,7 +3731,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -3759,12 +3759,12 @@
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3794,7 +3794,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3804,7 +3804,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3814,7 +3814,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3824,7 +3824,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3834,7 +3834,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3844,7 +3844,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3854,7 +3854,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -3864,7 +3864,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -3874,7 +3874,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -3884,7 +3884,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -3894,7 +3894,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3904,7 +3904,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -3914,7 +3914,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -3924,7 +3924,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -3934,7 +3934,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -3954,7 +3954,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -3970,7 +3970,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -4002,7 +4002,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -4018,7 +4018,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -4034,7 +4034,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -4050,7 +4050,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -4066,7 +4066,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -4082,7 +4082,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -4098,7 +4098,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -4110,7 +4110,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4129,12 +4129,12 @@
       <selection activeCell="C20" sqref="C20:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4164,7 +4164,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -4174,7 +4174,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -4184,7 +4184,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -4194,7 +4194,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -4204,7 +4204,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4214,7 +4214,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -4224,7 +4224,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -4234,7 +4234,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -4244,7 +4244,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -4254,7 +4254,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -4264,7 +4264,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -4274,7 +4274,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -4284,7 +4284,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -4294,7 +4294,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -4304,7 +4304,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -4314,7 +4314,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -4324,7 +4324,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -4336,7 +4336,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -4352,7 +4352,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -4368,7 +4368,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -4384,7 +4384,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -4400,7 +4400,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -4416,7 +4416,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -4432,7 +4432,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -4502,12 +4502,12 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4537,7 +4537,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -4547,7 +4547,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -4557,7 +4557,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -4567,7 +4567,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -4577,7 +4577,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4587,7 +4587,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -4597,7 +4597,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -4607,7 +4607,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -4617,7 +4617,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -4627,7 +4627,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -4637,7 +4637,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -4647,7 +4647,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -4657,7 +4657,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -4667,7 +4667,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -4677,7 +4677,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -4687,7 +4687,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -4703,7 +4703,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -4719,7 +4719,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -4735,7 +4735,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -4753,7 +4753,7 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -4857,7 +4857,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4876,16 +4876,16 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" style="16" customWidth="1"/>
-    <col min="2" max="4" width="8.81640625" style="16"/>
-    <col min="5" max="5" width="3.54296875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="16"/>
+    <col min="1" max="1" width="14.15234375" style="16" customWidth="1"/>
+    <col min="2" max="4" width="8.84375" style="16"/>
+    <col min="5" max="5" width="3.53515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="14.23046875" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="8.84375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>54</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>55</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -4933,415 +4933,407 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="32"/>
       <c r="F4" s="18" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="21"/>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="31"/>
-    </row>
-    <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="35"/>
       <c r="F5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="25"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33"/>
-    </row>
-    <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="33"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="21"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="35"/>
       <c r="F6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="25"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
-    </row>
-    <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="33"/>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="21"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="38"/>
       <c r="F7" s="18" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="25"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-    </row>
-    <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="36"/>
+      <c r="I7" s="38"/>
+    </row>
+    <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="32"/>
       <c r="F8" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="25"/>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="37"/>
-    </row>
-    <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="43"/>
+    </row>
+    <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="35"/>
       <c r="F9" s="18" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="25"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
+    </row>
+    <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="35"/>
       <c r="F10" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="25"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
-    </row>
-    <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+    </row>
+    <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="38"/>
       <c r="F11" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="25"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
-    </row>
-    <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
+    </row>
+    <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="31"/>
+      <c r="D12" s="32"/>
       <c r="F12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="25"/>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="37"/>
-    </row>
-    <row r="13" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="43"/>
+    </row>
+    <row r="13" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="21"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="35"/>
       <c r="F13" s="18" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="25"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
-    </row>
-    <row r="14" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+    </row>
+    <row r="14" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="35"/>
       <c r="F14" s="18" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="25"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-    </row>
-    <row r="15" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+    </row>
+    <row r="15" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="38"/>
       <c r="F15" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
-    </row>
-    <row r="16" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H15" s="46"/>
+      <c r="I15" s="47"/>
+    </row>
+    <row r="16" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="32"/>
       <c r="F16" s="18" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="37"/>
-    </row>
-    <row r="17" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="35"/>
       <c r="F17" s="18" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="42"/>
-    </row>
-    <row r="18" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I17" s="48"/>
+    </row>
+    <row r="18" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="27"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="38"/>
       <c r="F18" s="18" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="26"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-    </row>
-    <row r="19" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+    </row>
+    <row r="19" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
       <c r="F19" s="18" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="26"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-    </row>
-    <row r="20" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+    </row>
+    <row r="20" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
       <c r="F20" s="18" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="28"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-    </row>
-    <row r="21" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+    </row>
+    <row r="21" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="35"/>
       <c r="F21" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-    </row>
-    <row r="22" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+    </row>
+    <row r="22" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="35"/>
       <c r="F22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="31"/>
-    </row>
-    <row r="23" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
       <c r="F23" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="33"/>
-    </row>
-    <row r="24" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
       <c r="F24" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="33"/>
-    </row>
-    <row r="25" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
       <c r="F25" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="48" t="s">
+      <c r="G25" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-    </row>
-    <row r="26" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+    </row>
+    <row r="26" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
       <c r="F26" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="31"/>
-    </row>
-    <row r="27" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H26" s="31"/>
+      <c r="I26" s="32"/>
+    </row>
+    <row r="27" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
       <c r="F27" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="33"/>
-    </row>
-    <row r="28" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="35"/>
+    </row>
+    <row r="28" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
       <c r="F28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="33"/>
-    </row>
-    <row r="29" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="35"/>
+    </row>
+    <row r="29" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
       <c r="F29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="35"/>
-    </row>
-    <row r="30" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="38"/>
+    </row>
+    <row r="30" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G26:I29"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="B26:D29"/>
-    <mergeCell ref="B20:D23"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G22:I24"/>
     <mergeCell ref="C4:D7"/>
     <mergeCell ref="C8:D11"/>
     <mergeCell ref="C12:D15"/>
@@ -5351,6 +5343,14 @@
     <mergeCell ref="H12:I15"/>
     <mergeCell ref="H17:I20"/>
     <mergeCell ref="H16:I16"/>
+    <mergeCell ref="G26:I29"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="B26:D29"/>
+    <mergeCell ref="B20:D23"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G22:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5369,16 +5369,16 @@
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="16" customWidth="1"/>
-    <col min="2" max="4" width="8.81640625" style="16"/>
-    <col min="5" max="5" width="4.81640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="16"/>
+    <col min="1" max="1" width="13.4609375" style="16" customWidth="1"/>
+    <col min="2" max="4" width="8.84375" style="16"/>
+    <col min="5" max="5" width="4.84375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="13.23046875" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="8.84375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>60</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>61</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -5426,7 +5426,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -5440,127 +5440,127 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="49"/>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="32"/>
       <c r="F5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="55"/>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="31"/>
-    </row>
-    <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="35"/>
       <c r="F6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="56"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
-    </row>
-    <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="33"/>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="54"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="35"/>
       <c r="F7" s="18" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="56"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-    </row>
-    <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="33"/>
+      <c r="I7" s="35"/>
+    </row>
+    <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="50"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="38"/>
       <c r="F8" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="57"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="36"/>
+      <c r="I8" s="38"/>
+    </row>
+    <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="22"/>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="32"/>
       <c r="F9" s="18" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="55"/>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="31"/>
-    </row>
-    <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="23"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="35"/>
       <c r="F10" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="56"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-    </row>
-    <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="33"/>
+      <c r="I10" s="35"/>
+    </row>
+    <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="23"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="35"/>
       <c r="F11" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="56"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-    </row>
-    <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="33"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="23"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="38"/>
       <c r="F12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="56"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="36"/>
+      <c r="I12" s="38"/>
+    </row>
+    <row r="13" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="18" t="s">
         <v>15</v>
       </c>
@@ -5573,12 +5573,12 @@
         <v>15</v>
       </c>
       <c r="G13" s="56"/>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="37"/>
-    </row>
-    <row r="14" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I13" s="43"/>
+    </row>
+    <row r="14" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="18" t="s">
         <v>16</v>
       </c>
@@ -5589,10 +5589,10 @@
         <v>16</v>
       </c>
       <c r="G14" s="56"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-    </row>
-    <row r="15" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+    </row>
+    <row r="15" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -5603,10 +5603,10 @@
         <v>17</v>
       </c>
       <c r="G15" s="56"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39"/>
-    </row>
-    <row r="16" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+    </row>
+    <row r="16" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="18" t="s">
         <v>59</v>
       </c>
@@ -5617,62 +5617,62 @@
         <v>59</v>
       </c>
       <c r="G16" s="56"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
-    </row>
-    <row r="17" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
+    </row>
+    <row r="17" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="23"/>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="31"/>
+      <c r="D17" s="32"/>
       <c r="F17" s="18" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="56"/>
-      <c r="H17" s="48" t="s">
+      <c r="H17" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="48"/>
-    </row>
-    <row r="18" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I17" s="42"/>
+    </row>
+    <row r="18" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="23"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="35"/>
       <c r="F18" s="18" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="57"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-    </row>
-    <row r="19" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+    </row>
+    <row r="19" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="23"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="35"/>
       <c r="F19" s="18" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="20"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-    </row>
-    <row r="20" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+    </row>
+    <row r="20" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="23"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="38"/>
       <c r="F20" s="18" t="s">
         <v>22</v>
       </c>
@@ -5682,15 +5682,15 @@
       <c r="H20" s="52"/>
       <c r="I20" s="53"/>
     </row>
-    <row r="21" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="23"/>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="32"/>
       <c r="F21" s="18" t="s">
         <v>23</v>
       </c>
@@ -5700,13 +5700,13 @@
       <c r="H21" s="63"/>
       <c r="I21" s="59"/>
     </row>
-    <row r="22" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="24"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="35"/>
       <c r="F22" s="18" t="s">
         <v>24</v>
       </c>
@@ -5714,13 +5714,13 @@
       <c r="H22" s="64"/>
       <c r="I22" s="61"/>
     </row>
-    <row r="23" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="49"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="35"/>
       <c r="F23" s="18" t="s">
         <v>25</v>
       </c>
@@ -5728,13 +5728,13 @@
       <c r="H23" s="64"/>
       <c r="I23" s="61"/>
     </row>
-    <row r="24" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="50"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="38"/>
       <c r="F24" s="18" t="s">
         <v>26</v>
       </c>
@@ -5742,7 +5742,7 @@
       <c r="H24" s="52"/>
       <c r="I24" s="53"/>
     </row>
-    <row r="25" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="18" t="s">
         <v>27</v>
       </c>
@@ -5756,7 +5756,7 @@
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="18" t="s">
         <v>28</v>
       </c>
@@ -5770,7 +5770,7 @@
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="18" t="s">
         <v>29</v>
       </c>
@@ -5784,7 +5784,7 @@
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="18" t="s">
         <v>30</v>
       </c>
@@ -5798,7 +5798,7 @@
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="18" t="s">
         <v>31</v>
       </c>
@@ -5812,7 +5812,7 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="B23:B24"/>

--- a/_content/training/2019/trainingsuren-2019-2020.xlsx
+++ b/_content/training/2019/trainingsuren-2019-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\basket\lummen\_content\training\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984D7CA7-F5A2-4D23-A6BC-116B510A0BE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583EC389-0B7B-4589-AA5A-BDBE8CA2B669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1534" yWindow="-103" windowWidth="31483" windowHeight="18720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1227" yWindow="-93" windowWidth="24466" windowHeight="14586" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maandag" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="93">
   <si>
     <t>SH2</t>
   </si>
@@ -696,6 +696,54 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -703,72 +751,24 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3035,15 +3035,15 @@
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="6" width="10" customWidth="1"/>
-    <col min="8" max="8" width="18.4609375" customWidth="1"/>
-    <col min="15" max="15" width="18.15234375" customWidth="1"/>
+    <col min="8" max="8" width="18.46875" customWidth="1"/>
+    <col min="15" max="15" width="18.17578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3083,7 +3083,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3093,7 +3093,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3103,7 +3103,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -3113,7 +3113,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3123,7 +3123,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -3133,7 +3133,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -3143,7 +3143,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -3153,7 +3153,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -3183,7 +3183,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -3203,7 +3203,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -3213,7 +3213,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -3223,7 +3223,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -3243,7 +3243,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -3253,7 +3253,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -3269,7 +3269,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -3325,7 +3325,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -3335,7 +3335,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -3345,7 +3345,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -3355,33 +3355,33 @@
       <c r="E29" s="5"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3396,16 +3396,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.4609375" customWidth="1"/>
+    <col min="1" max="1" width="17.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3445,7 +3445,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3455,7 +3455,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3465,7 +3465,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3475,7 +3475,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3485,7 +3485,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3495,7 +3495,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -3505,7 +3505,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -3515,7 +3515,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -3525,7 +3525,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -3535,7 +3535,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3545,7 +3545,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -3555,7 +3555,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -3565,7 +3565,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -3575,7 +3575,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -3585,7 +3585,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -3595,7 +3595,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -3604,12 +3604,12 @@
         <v>90</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -3623,7 +3623,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -3633,11 +3633,13 @@
       <c r="C21" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E21" s="11"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -3653,7 +3655,7 @@
       <c r="E22" s="11"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -3669,7 +3671,7 @@
       <c r="E23" s="11"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -3683,7 +3685,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -3699,7 +3701,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -3715,7 +3717,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -3731,7 +3733,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -3755,16 +3757,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -3784,7 +3786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3794,7 +3796,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3804,7 +3806,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3814,7 +3816,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3824,7 +3826,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3834,7 +3836,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3844,7 +3846,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3854,7 +3856,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -3864,7 +3866,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -3874,7 +3876,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -3884,7 +3886,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -3894,7 +3896,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3904,7 +3906,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -3914,7 +3916,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -3924,7 +3926,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -3934,7 +3936,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -3944,7 +3946,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -3954,7 +3956,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -3970,7 +3972,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -3986,7 +3988,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -4002,7 +4004,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -4018,7 +4020,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -4034,7 +4036,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -4050,7 +4052,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -4066,7 +4068,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -4082,7 +4084,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -4098,7 +4100,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -4110,7 +4112,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4126,15 +4128,15 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="101" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C22"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.4609375" customWidth="1"/>
+    <col min="1" max="1" width="17.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -4154,7 +4156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4164,7 +4166,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -4174,7 +4176,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -4184,7 +4186,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -4194,7 +4196,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -4204,7 +4206,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4214,7 +4216,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -4224,7 +4226,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -4234,7 +4236,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -4244,7 +4246,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -4254,7 +4256,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -4264,7 +4266,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -4274,7 +4276,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -4284,7 +4286,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -4294,7 +4296,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -4304,7 +4306,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -4314,7 +4316,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -4324,7 +4326,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -4336,7 +4338,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -4352,7 +4354,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -4368,7 +4370,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -4384,7 +4386,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -4400,7 +4402,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -4416,7 +4418,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -4432,7 +4434,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -4450,7 +4452,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -4468,7 +4470,7 @@
       </c>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -4498,16 +4500,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.23046875" customWidth="1"/>
+    <col min="1" max="1" width="18.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -4527,7 +4529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4537,7 +4539,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -4547,7 +4549,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -4557,7 +4559,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -4567,7 +4569,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -4577,7 +4579,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4587,7 +4589,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -4597,7 +4599,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -4607,7 +4609,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -4617,7 +4619,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -4627,7 +4629,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -4637,7 +4639,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -4647,7 +4649,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -4657,7 +4659,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -4667,7 +4669,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -4677,7 +4679,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -4687,7 +4689,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -4703,7 +4705,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -4719,7 +4721,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -4735,7 +4737,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -4753,7 +4755,7 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -4771,7 +4773,7 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -4787,7 +4789,7 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -4803,7 +4805,7 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -4819,7 +4821,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -4833,7 +4835,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -4847,7 +4849,7 @@
       </c>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -4857,7 +4859,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.5"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4876,16 +4878,16 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14.15234375" style="16" customWidth="1"/>
-    <col min="2" max="4" width="8.84375" style="16"/>
-    <col min="5" max="5" width="3.53515625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="14.23046875" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.84375" style="16"/>
+    <col min="1" max="1" width="14.17578125" style="16" customWidth="1"/>
+    <col min="2" max="4" width="8.8203125" style="16"/>
+    <col min="5" max="5" width="3.52734375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="14.234375" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="8.8203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" s="19" t="s">
         <v>54</v>
       </c>
@@ -4893,7 +4895,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>55</v>
       </c>
@@ -4919,7 +4921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -4933,407 +4935,415 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="31"/>
       <c r="F4" s="18" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="21"/>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="32"/>
-    </row>
-    <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="35"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
       <c r="F5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="25"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="21"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="35"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="F6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="25"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="21"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="38"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
       <c r="F7" s="18" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="25"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="38"/>
-    </row>
-    <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+    </row>
+    <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="31"/>
       <c r="F8" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="25"/>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="43"/>
-    </row>
-    <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
       <c r="F9" s="18" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="25"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
-    </row>
-    <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H9" s="38"/>
+      <c r="I9" s="39"/>
+    </row>
+    <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="35"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
       <c r="F10" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="25"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
+    </row>
+    <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
       <c r="F11" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="25"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="47"/>
-    </row>
-    <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
+    </row>
+    <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="32"/>
+      <c r="D12" s="31"/>
       <c r="F12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="25"/>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="43"/>
-    </row>
-    <row r="13" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I12" s="37"/>
+    </row>
+    <row r="13" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="21"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="35"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
       <c r="F13" s="18" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="25"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
-    </row>
-    <row r="14" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
+    </row>
+    <row r="14" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="35"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
       <c r="F14" s="18" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="25"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
-    </row>
-    <row r="15" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
+    </row>
+    <row r="15" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="38"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
       <c r="F15" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="47"/>
-    </row>
-    <row r="16" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
+    </row>
+    <row r="16" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="32"/>
+      <c r="D16" s="31"/>
       <c r="F16" s="18" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="43"/>
-    </row>
-    <row r="17" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I16" s="37"/>
+    </row>
+    <row r="17" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="35"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
       <c r="F17" s="18" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="48" t="s">
+      <c r="H17" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="48"/>
-    </row>
-    <row r="18" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I17" s="42"/>
+    </row>
+    <row r="18" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="27"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="38"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
       <c r="F18" s="18" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="26"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-    </row>
-    <row r="19" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+    </row>
+    <row r="19" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
       <c r="F19" s="18" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="26"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-    </row>
-    <row r="20" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+    </row>
+    <row r="20" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="31"/>
       <c r="F20" s="18" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="28"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-    </row>
-    <row r="21" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+    </row>
+    <row r="21" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="35"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="33"/>
       <c r="F21" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-    </row>
-    <row r="22" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+    </row>
+    <row r="22" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="35"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="33"/>
       <c r="F22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
-    </row>
-    <row r="23" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H22" s="43"/>
+      <c r="I22" s="31"/>
+    </row>
+    <row r="23" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="35"/>
       <c r="F23" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
-    </row>
-    <row r="24" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G23" s="32"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="33"/>
+    </row>
+    <row r="24" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="31"/>
       <c r="F24" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="35"/>
-    </row>
-    <row r="25" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G24" s="32"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="33"/>
+    </row>
+    <row r="25" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="35"/>
       <c r="F25" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-    </row>
-    <row r="26" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+    </row>
+    <row r="26" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="31"/>
       <c r="F26" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="32"/>
-    </row>
-    <row r="27" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H26" s="43"/>
+      <c r="I26" s="31"/>
+    </row>
+    <row r="27" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="33"/>
       <c r="F27" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="35"/>
-    </row>
-    <row r="28" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G27" s="32"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="33"/>
+    </row>
+    <row r="28" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="33"/>
       <c r="F28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="35"/>
-    </row>
-    <row r="29" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G28" s="32"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="33"/>
+    </row>
+    <row r="29" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="35"/>
       <c r="F29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="38"/>
-    </row>
-    <row r="30" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="35"/>
+    </row>
+    <row r="30" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G26:I29"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="B26:D29"/>
+    <mergeCell ref="B20:D23"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G22:I24"/>
     <mergeCell ref="C4:D7"/>
     <mergeCell ref="C8:D11"/>
     <mergeCell ref="C12:D15"/>
@@ -5343,14 +5353,6 @@
     <mergeCell ref="H12:I15"/>
     <mergeCell ref="H17:I20"/>
     <mergeCell ref="H16:I16"/>
-    <mergeCell ref="G26:I29"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="B26:D29"/>
-    <mergeCell ref="B20:D23"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G22:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5369,16 +5371,16 @@
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.4609375" style="16" customWidth="1"/>
-    <col min="2" max="4" width="8.84375" style="16"/>
-    <col min="5" max="5" width="4.84375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="13.23046875" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.84375" style="16"/>
+    <col min="1" max="1" width="13.46875" style="16" customWidth="1"/>
+    <col min="2" max="4" width="8.8203125" style="16"/>
+    <col min="5" max="5" width="4.8203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="13.234375" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="8.8203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" s="19" t="s">
         <v>60</v>
       </c>
@@ -5386,7 +5388,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>61</v>
       </c>
@@ -5412,7 +5414,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -5426,7 +5428,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -5440,127 +5442,127 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="49"/>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="31"/>
       <c r="F5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="55"/>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="32"/>
-    </row>
-    <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="54"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="35"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="F6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="56"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="54"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="35"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
       <c r="F7" s="18" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="56"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="35"/>
-    </row>
-    <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+    </row>
+    <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="50"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
       <c r="F8" s="18" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="57"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="38"/>
-    </row>
-    <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+    </row>
+    <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="22"/>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="31"/>
       <c r="F9" s="18" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="55"/>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="32"/>
-    </row>
-    <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="23"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="35"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
       <c r="F10" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="56"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+    </row>
+    <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="23"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
       <c r="F11" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="56"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="35"/>
-    </row>
-    <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+    </row>
+    <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="23"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
       <c r="F12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="56"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="38"/>
-    </row>
-    <row r="13" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="18" t="s">
         <v>15</v>
       </c>
@@ -5573,12 +5575,12 @@
         <v>15</v>
       </c>
       <c r="G13" s="56"/>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="43"/>
-    </row>
-    <row r="14" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="18" t="s">
         <v>16</v>
       </c>
@@ -5589,10 +5591,10 @@
         <v>16</v>
       </c>
       <c r="G14" s="56"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
-    </row>
-    <row r="15" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
+    </row>
+    <row r="15" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -5603,10 +5605,10 @@
         <v>17</v>
       </c>
       <c r="G15" s="56"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-    </row>
-    <row r="16" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+    </row>
+    <row r="16" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="18" t="s">
         <v>59</v>
       </c>
@@ -5617,62 +5619,62 @@
         <v>59</v>
       </c>
       <c r="G16" s="56"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
-    </row>
-    <row r="17" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
+    </row>
+    <row r="17" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="23"/>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="32"/>
+      <c r="D17" s="31"/>
       <c r="F17" s="18" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="56"/>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="42"/>
-    </row>
-    <row r="18" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I17" s="48"/>
+    </row>
+    <row r="18" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="23"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
       <c r="F18" s="18" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="57"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-    </row>
-    <row r="19" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+    </row>
+    <row r="19" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="23"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="35"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
       <c r="F19" s="18" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="20"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-    </row>
-    <row r="20" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+    </row>
+    <row r="20" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="23"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="38"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
       <c r="F20" s="18" t="s">
         <v>22</v>
       </c>
@@ -5682,15 +5684,15 @@
       <c r="H20" s="52"/>
       <c r="I20" s="53"/>
     </row>
-    <row r="21" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="23"/>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="32"/>
+      <c r="D21" s="31"/>
       <c r="F21" s="18" t="s">
         <v>23</v>
       </c>
@@ -5700,13 +5702,13 @@
       <c r="H21" s="63"/>
       <c r="I21" s="59"/>
     </row>
-    <row r="22" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="24"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="35"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
       <c r="F22" s="18" t="s">
         <v>24</v>
       </c>
@@ -5714,13 +5716,13 @@
       <c r="H22" s="64"/>
       <c r="I22" s="61"/>
     </row>
-    <row r="23" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="49"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="35"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
       <c r="F23" s="18" t="s">
         <v>25</v>
       </c>
@@ -5728,13 +5730,13 @@
       <c r="H23" s="64"/>
       <c r="I23" s="61"/>
     </row>
-    <row r="24" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="50"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="38"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
       <c r="F24" s="18" t="s">
         <v>26</v>
       </c>
@@ -5742,7 +5744,7 @@
       <c r="H24" s="52"/>
       <c r="I24" s="53"/>
     </row>
-    <row r="25" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="18" t="s">
         <v>27</v>
       </c>
@@ -5756,7 +5758,7 @@
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="18" t="s">
         <v>28</v>
       </c>
@@ -5770,7 +5772,7 @@
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="18" t="s">
         <v>29</v>
       </c>
@@ -5784,7 +5786,7 @@
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="18" t="s">
         <v>30</v>
       </c>
@@ -5798,7 +5800,7 @@
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="18" t="s">
         <v>31</v>
       </c>
@@ -5812,7 +5814,7 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.5"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="B23:B24"/>
